--- a/crawled_data.xlsx
+++ b/crawled_data.xlsx
@@ -480,18 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2677.95</v>
+        <v>2676.76</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.8</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>1204.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13694.624</v>
+      </c>
+      <c r="F2" t="n">
+        <v>34058.75</v>
+      </c>
       <c r="G2" t="n">
-        <v>26431.32</v>
+        <v>26476.5</v>
       </c>
       <c r="H2" t="n">
-        <v>286.138</v>
+        <v>283.696</v>
       </c>
     </row>
     <row r="3">
